--- a/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Version.xlsx
+++ b/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Version.xlsx
@@ -106,7 +106,7 @@
     <t>otherAuthor</t>
   </si>
   <si>
-    <t>authorDescribe</t>
+    <t>authorNotes</t>
   </si>
   <si>
     <t>內府刊本</t>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:J5879"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -4091,12 +4091,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
@@ -4110,12 +4104,6 @@
       </c>
       <c r="H13" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14913,12 +14901,6 @@
         <v>395</v>
       </c>
     </row>
-    <row r="1310" spans="1:1">
-      <c r="A1310" s="1" t="str">
-        <f>IF(B1310*10+C1310&gt;0,B1310*10+C1310,"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="1311" spans="1:8">
       <c r="A1311" s="1">
         <f>IF(B1311*10+C1311&gt;0,B1311*10+C1311,"")</f>
@@ -15099,12 +15081,6 @@
         <v>404</v>
       </c>
     </row>
-    <row r="1334" spans="1:1">
-      <c r="A1334" s="1" t="str">
-        <f>IF(B1334*10+C1334&gt;0,B1334*10+C1334,"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="1335" spans="1:8">
       <c r="A1335" s="1">
         <f>IF(B1335*10+C1335&gt;0,B1335*10+C1335,"")</f>
@@ -33585,11 +33561,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3635" spans="1:8">
-      <c r="A3635" s="1" t="str">
-        <f>IF(B3635*10+C3635&gt;0,B3635*10+C3635,"")</f>
-        <v/>
-      </c>
+    <row r="3635" spans="8:8">
       <c r="H3635" s="3"/>
     </row>
     <row r="3636" spans="1:8">
@@ -46630,12 +46602,6 @@
         <v>110050064</v>
       </c>
     </row>
-    <row r="5229" spans="1:1">
-      <c r="A5229" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
     <row r="5230" spans="1:2">
       <c r="A5230" s="1">
         <f t="shared" si="41"/>
@@ -46906,12 +46872,6 @@
         <v>110060030</v>
       </c>
     </row>
-    <row r="5260" spans="1:1">
-      <c r="A5260" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-    </row>
     <row r="5261" spans="1:2">
       <c r="A5261" s="1">
         <f t="shared" si="41"/>
@@ -47578,12 +47538,6 @@
         <v>110070074</v>
       </c>
     </row>
-    <row r="5335" spans="1:1">
-      <c r="A5335" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
     <row r="5336" spans="1:2">
       <c r="A5336" s="1">
         <f t="shared" si="43"/>
@@ -49393,12 +49347,6 @@
         <v>110080201</v>
       </c>
     </row>
-    <row r="5537" spans="1:1">
-      <c r="A5537" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5538" spans="1:2">
       <c r="A5538" s="1">
         <f t="shared" si="46"/>
@@ -49516,12 +49464,6 @@
         <v>110090013</v>
       </c>
     </row>
-    <row r="5551" spans="1:1">
-      <c r="A5551" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5552" spans="1:2">
       <c r="A5552" s="1">
         <f t="shared" si="46"/>
@@ -49567,12 +49509,6 @@
         <v>111010005</v>
       </c>
     </row>
-    <row r="5557" spans="1:1">
-      <c r="A5557" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5558" spans="1:2">
       <c r="A5558" s="1">
         <f t="shared" si="46"/>
@@ -49591,12 +49527,6 @@
         <v>111020002</v>
       </c>
     </row>
-    <row r="5560" spans="1:1">
-      <c r="A5560" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5561" spans="1:2">
       <c r="A5561" s="1">
         <f t="shared" si="46"/>
@@ -49687,12 +49617,6 @@
         <v>111030010</v>
       </c>
     </row>
-    <row r="5571" spans="1:1">
-      <c r="A5571" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5572" spans="1:2">
       <c r="A5572" s="1">
         <f t="shared" si="46"/>
@@ -49720,12 +49644,6 @@
         <v>111040003</v>
       </c>
     </row>
-    <row r="5575" spans="1:1">
-      <c r="A5575" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5576" spans="1:2">
       <c r="A5576" s="1">
         <f t="shared" si="46"/>
@@ -49735,12 +49653,6 @@
         <v>111050001</v>
       </c>
     </row>
-    <row r="5577" spans="1:1">
-      <c r="A5577" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5578" spans="1:2">
       <c r="A5578" s="1">
         <f t="shared" si="46"/>
@@ -49768,12 +49680,6 @@
         <v>111060003</v>
       </c>
     </row>
-    <row r="5581" spans="1:1">
-      <c r="A5581" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5582" spans="1:2">
       <c r="A5582" s="1">
         <f t="shared" si="46"/>
@@ -49783,12 +49689,6 @@
         <v>111070001</v>
       </c>
     </row>
-    <row r="5583" spans="1:1">
-      <c r="A5583" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5584" spans="1:2">
       <c r="A5584" s="1">
         <f t="shared" si="46"/>
@@ -49807,12 +49707,6 @@
         <v>112010002</v>
       </c>
     </row>
-    <row r="5586" spans="1:1">
-      <c r="A5586" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
     <row r="5587" spans="1:2">
       <c r="A5587" s="1">
         <f t="shared" si="46"/>
@@ -49858,12 +49752,6 @@
         <v>112020005</v>
       </c>
     </row>
-    <row r="5592" spans="1:1">
-      <c r="A5592" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5593" spans="1:2">
       <c r="A5593" s="1">
         <f t="shared" si="47"/>
@@ -49891,12 +49779,6 @@
         <v>112030003</v>
       </c>
     </row>
-    <row r="5596" spans="1:1">
-      <c r="A5596" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5597" spans="1:2">
       <c r="A5597" s="1">
         <f t="shared" si="47"/>
@@ -49942,12 +49824,6 @@
         <v>112040005</v>
       </c>
     </row>
-    <row r="5602" spans="1:1">
-      <c r="A5602" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5603" spans="1:2">
       <c r="A5603" s="1">
         <f t="shared" si="47"/>
@@ -49966,12 +49842,6 @@
         <v>112050002</v>
       </c>
     </row>
-    <row r="5605" spans="1:1">
-      <c r="A5605" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5606" spans="1:2">
       <c r="A5606" s="1">
         <f t="shared" si="47"/>
@@ -49981,12 +49851,6 @@
         <v>112060001</v>
       </c>
     </row>
-    <row r="5607" spans="1:1">
-      <c r="A5607" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5608" spans="1:2">
       <c r="A5608" s="1">
         <f t="shared" si="47"/>
@@ -50023,12 +49887,6 @@
         <v>112070004</v>
       </c>
     </row>
-    <row r="5612" spans="1:1">
-      <c r="A5612" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5613" spans="1:2">
       <c r="A5613" s="1">
         <f t="shared" si="47"/>
@@ -50065,12 +49923,6 @@
         <v>113010004</v>
       </c>
     </row>
-    <row r="5617" spans="1:1">
-      <c r="A5617" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5618" spans="1:2">
       <c r="A5618" s="1">
         <f t="shared" si="47"/>
@@ -50260,12 +50112,6 @@
         <v>113020021</v>
       </c>
     </row>
-    <row r="5639" spans="1:1">
-      <c r="A5639" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5640" spans="1:2">
       <c r="A5640" s="1">
         <f t="shared" si="47"/>
@@ -50284,12 +50130,6 @@
         <v>113030002</v>
       </c>
     </row>
-    <row r="5642" spans="1:1">
-      <c r="A5642" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5643" spans="1:2">
       <c r="A5643" s="1">
         <f t="shared" si="47"/>
@@ -50335,12 +50175,6 @@
         <v>113040005</v>
       </c>
     </row>
-    <row r="5648" spans="1:1">
-      <c r="A5648" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
     <row r="5649" spans="1:2">
       <c r="A5649" s="1">
         <f t="shared" si="47"/>
@@ -50476,12 +50310,6 @@
         <v>113050015</v>
       </c>
     </row>
-    <row r="5664" spans="1:1">
-      <c r="A5664" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5665" spans="1:2">
       <c r="A5665" s="1">
         <f t="shared" si="48"/>
@@ -50509,12 +50337,6 @@
         <v>113060003</v>
       </c>
     </row>
-    <row r="5668" spans="1:1">
-      <c r="A5668" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5669" spans="1:2">
       <c r="A5669" s="1">
         <f t="shared" si="48"/>
@@ -50569,12 +50391,6 @@
         <v>113070006</v>
       </c>
     </row>
-    <row r="5675" spans="1:1">
-      <c r="A5675" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5676" spans="1:2">
       <c r="A5676" s="1">
         <f t="shared" si="48"/>
@@ -50584,12 +50400,6 @@
         <v>113080001</v>
       </c>
     </row>
-    <row r="5677" spans="1:1">
-      <c r="A5677" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5678" spans="1:2">
       <c r="A5678" s="1">
         <f t="shared" si="48"/>
@@ -50617,12 +50427,6 @@
         <v>113090003</v>
       </c>
     </row>
-    <row r="5681" spans="1:1">
-      <c r="A5681" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5682" spans="1:2">
       <c r="A5682" s="1">
         <f t="shared" si="48"/>
@@ -50668,12 +50472,6 @@
         <v>113100005</v>
       </c>
     </row>
-    <row r="5687" spans="1:1">
-      <c r="A5687" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5688" spans="1:2">
       <c r="A5688" s="1">
         <f t="shared" si="48"/>
@@ -50683,12 +50481,6 @@
         <v>113110001</v>
       </c>
     </row>
-    <row r="5689" spans="1:1">
-      <c r="A5689" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5690" spans="1:2">
       <c r="A5690" s="1">
         <f t="shared" si="48"/>
@@ -50734,12 +50526,6 @@
         <v>113120005</v>
       </c>
     </row>
-    <row r="5695" spans="1:1">
-      <c r="A5695" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5696" spans="1:2">
       <c r="A5696" s="1">
         <f t="shared" si="48"/>
@@ -50749,12 +50535,6 @@
         <v>113130001</v>
       </c>
     </row>
-    <row r="5697" spans="1:1">
-      <c r="A5697" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5698" spans="1:2">
       <c r="A5698" s="1">
         <f t="shared" si="48"/>
@@ -50782,12 +50562,6 @@
         <v>114010003</v>
       </c>
     </row>
-    <row r="5701" spans="1:1">
-      <c r="A5701" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5702" spans="1:2">
       <c r="A5702" s="1">
         <f t="shared" si="48"/>
@@ -50815,12 +50589,6 @@
         <v>114020003</v>
       </c>
     </row>
-    <row r="5705" spans="1:1">
-      <c r="A5705" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5706" spans="1:2">
       <c r="A5706" s="1">
         <f t="shared" si="48"/>
@@ -50848,12 +50616,6 @@
         <v>114030003</v>
       </c>
     </row>
-    <row r="5709" spans="1:1">
-      <c r="A5709" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5710" spans="1:2">
       <c r="A5710" s="1">
         <f t="shared" si="48"/>
@@ -50899,12 +50661,6 @@
         <v>114040005</v>
       </c>
     </row>
-    <row r="5715" spans="1:1">
-      <c r="A5715" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-    </row>
     <row r="5716" spans="1:2">
       <c r="A5716" s="1">
         <f t="shared" si="48"/>
@@ -50932,12 +50688,6 @@
         <v>114050003</v>
       </c>
     </row>
-    <row r="5719" spans="1:1">
-      <c r="A5719" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5720" spans="1:2">
       <c r="A5720" s="1">
         <f t="shared" si="49"/>
@@ -51055,12 +50805,6 @@
         <v>114060013</v>
       </c>
     </row>
-    <row r="5733" spans="1:1">
-      <c r="A5733" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5734" spans="1:2">
       <c r="A5734" s="1">
         <f t="shared" si="49"/>
@@ -51070,12 +50814,6 @@
         <v>114070001</v>
       </c>
     </row>
-    <row r="5735" spans="1:1">
-      <c r="A5735" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5736" spans="1:2">
       <c r="A5736" s="1">
         <f t="shared" si="49"/>
@@ -51229,12 +50967,6 @@
         <v>114080017</v>
       </c>
     </row>
-    <row r="5753" spans="1:1">
-      <c r="A5753" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5754" spans="1:2">
       <c r="A5754" s="1">
         <f t="shared" si="49"/>
@@ -51244,12 +50976,6 @@
         <v>114090001</v>
       </c>
     </row>
-    <row r="5755" spans="1:1">
-      <c r="A5755" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5756" spans="1:2">
       <c r="A5756" s="1">
         <f t="shared" si="49"/>
@@ -51340,12 +51066,6 @@
         <v>114100010</v>
       </c>
     </row>
-    <row r="5766" spans="1:1">
-      <c r="A5766" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5767" spans="1:2">
       <c r="A5767" s="1">
         <f t="shared" si="49"/>
@@ -51445,12 +51165,6 @@
         <v>114110011</v>
       </c>
     </row>
-    <row r="5778" spans="1:1">
-      <c r="A5778" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5779" spans="1:2">
       <c r="A5779" s="1">
         <f t="shared" si="49"/>
@@ -51469,12 +51183,6 @@
         <v>120010002</v>
       </c>
     </row>
-    <row r="5781" spans="1:1">
-      <c r="A5781" s="1" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
     <row r="5782" spans="1:2">
       <c r="A5782" s="1">
         <f t="shared" ref="A5782:A5845" si="50">IF(B5782*10+C5782&gt;0,B5782*10+C5782,"")</f>
@@ -51484,12 +51192,6 @@
         <v>120020001</v>
       </c>
     </row>
-    <row r="5783" spans="1:1">
-      <c r="A5783" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5784" spans="1:2">
       <c r="A5784" s="1">
         <f t="shared" si="50"/>
@@ -51535,12 +51237,6 @@
         <v>120030005</v>
       </c>
     </row>
-    <row r="5789" spans="1:1">
-      <c r="A5789" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5790" spans="1:2">
       <c r="A5790" s="1">
         <f t="shared" si="50"/>
@@ -51559,12 +51255,6 @@
         <v>120040002</v>
       </c>
     </row>
-    <row r="5792" spans="1:1">
-      <c r="A5792" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5793" spans="1:2">
       <c r="A5793" s="1">
         <f t="shared" si="50"/>
@@ -51574,12 +51264,6 @@
         <v>120050001</v>
       </c>
     </row>
-    <row r="5794" spans="1:1">
-      <c r="A5794" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5795" spans="1:2">
       <c r="A5795" s="1">
         <f t="shared" si="50"/>
@@ -51589,12 +51273,6 @@
         <v>120060001</v>
       </c>
     </row>
-    <row r="5796" spans="1:1">
-      <c r="A5796" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5797" spans="1:2">
       <c r="A5797" s="1">
         <f t="shared" si="50"/>
@@ -51613,12 +51291,6 @@
         <v>120070002</v>
       </c>
     </row>
-    <row r="5799" spans="1:1">
-      <c r="A5799" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5800" spans="1:2">
       <c r="A5800" s="1">
         <f t="shared" si="50"/>
@@ -51628,12 +51300,6 @@
         <v>121010001</v>
       </c>
     </row>
-    <row r="5801" spans="1:1">
-      <c r="A5801" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5802" spans="1:2">
       <c r="A5802" s="1">
         <f t="shared" si="50"/>
@@ -51643,12 +51309,6 @@
         <v>121020001</v>
       </c>
     </row>
-    <row r="5803" spans="1:1">
-      <c r="A5803" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5804" spans="1:2">
       <c r="A5804" s="1">
         <f t="shared" si="50"/>
@@ -51658,12 +51318,6 @@
         <v>121030001</v>
       </c>
     </row>
-    <row r="5805" spans="1:1">
-      <c r="A5805" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5806" spans="1:2">
       <c r="A5806" s="1">
         <f t="shared" si="50"/>
@@ -51718,12 +51372,6 @@
         <v>121040006</v>
       </c>
     </row>
-    <row r="5812" spans="1:1">
-      <c r="A5812" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5813" spans="1:2">
       <c r="A5813" s="1">
         <f t="shared" si="50"/>
@@ -51733,12 +51381,6 @@
         <v>121050001</v>
       </c>
     </row>
-    <row r="5814" spans="1:1">
-      <c r="A5814" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5815" spans="1:2">
       <c r="A5815" s="1">
         <f t="shared" si="50"/>
@@ -51766,12 +51408,6 @@
         <v>121060003</v>
       </c>
     </row>
-    <row r="5818" spans="1:1">
-      <c r="A5818" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5819" spans="1:2">
       <c r="A5819" s="1">
         <f t="shared" si="50"/>
@@ -51781,12 +51417,6 @@
         <v>121070001</v>
       </c>
     </row>
-    <row r="5820" spans="1:1">
-      <c r="A5820" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5821" spans="1:2">
       <c r="A5821" s="1">
         <f t="shared" si="50"/>
@@ -51841,12 +51471,6 @@
         <v>121080006</v>
       </c>
     </row>
-    <row r="5827" spans="1:1">
-      <c r="A5827" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5828" spans="1:2">
       <c r="A5828" s="1">
         <f t="shared" si="50"/>
@@ -51865,12 +51489,6 @@
         <v>121090002</v>
       </c>
     </row>
-    <row r="5830" spans="1:1">
-      <c r="A5830" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5831" spans="1:2">
       <c r="A5831" s="1">
         <f t="shared" si="50"/>
@@ -51907,12 +51525,6 @@
         <v>122010004</v>
       </c>
     </row>
-    <row r="5835" spans="1:1">
-      <c r="A5835" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5836" spans="1:2">
       <c r="A5836" s="1">
         <f t="shared" si="50"/>
@@ -51931,12 +51543,6 @@
         <v>122020002</v>
       </c>
     </row>
-    <row r="5838" spans="1:1">
-      <c r="A5838" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5839" spans="1:2">
       <c r="A5839" s="1">
         <f t="shared" si="50"/>
@@ -51964,12 +51570,6 @@
         <v>122030003</v>
       </c>
     </row>
-    <row r="5842" spans="1:1">
-      <c r="A5842" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5843" spans="1:2">
       <c r="A5843" s="1">
         <f t="shared" si="50"/>
@@ -51988,75 +51588,45 @@
         <v>122040002</v>
       </c>
     </row>
-    <row r="5845" spans="1:1">
-      <c r="A5845" s="1" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-    </row>
     <row r="5846" spans="1:2">
       <c r="A5846" s="1">
-        <f t="shared" ref="A5846:A5909" si="51">IF(B5846*10+C5846&gt;0,B5846*10+C5846,"")</f>
+        <f>IF(B5846*10+C5846&gt;0,B5846*10+C5846,"")</f>
         <v>1220500010</v>
       </c>
       <c r="B5846" s="1">
         <v>122050001</v>
       </c>
     </row>
-    <row r="5847" spans="1:1">
-      <c r="A5847" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5848" spans="1:2">
       <c r="A5848" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5848*10+C5848&gt;0,B5848*10+C5848,"")</f>
         <v>1220600010</v>
       </c>
       <c r="B5848" s="1">
         <v>122060001</v>
       </c>
     </row>
-    <row r="5849" spans="1:1">
-      <c r="A5849" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5850" spans="1:2">
       <c r="A5850" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5850*10+C5850&gt;0,B5850*10+C5850,"")</f>
         <v>1230100010</v>
       </c>
       <c r="B5850" s="1">
         <v>123010001</v>
       </c>
     </row>
-    <row r="5851" spans="1:1">
-      <c r="A5851" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5852" spans="1:2">
       <c r="A5852" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5852*10+C5852&gt;0,B5852*10+C5852,"")</f>
         <v>1230200010</v>
       </c>
       <c r="B5852" s="1">
         <v>123020001</v>
       </c>
     </row>
-    <row r="5853" spans="1:1">
-      <c r="A5853" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5854" spans="1:2">
       <c r="A5854" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5854*10+C5854&gt;0,B5854*10+C5854,"")</f>
         <v>1230300010</v>
       </c>
       <c r="B5854" s="1">
@@ -52065,7 +51635,7 @@
     </row>
     <row r="5855" spans="1:2">
       <c r="A5855" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5855*10+C5855&gt;0,B5855*10+C5855,"")</f>
         <v>1230300020</v>
       </c>
       <c r="B5855" s="1">
@@ -52074,7 +51644,7 @@
     </row>
     <row r="5856" spans="1:2">
       <c r="A5856" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5856*10+C5856&gt;0,B5856*10+C5856,"")</f>
         <v>1230300030</v>
       </c>
       <c r="B5856" s="1">
@@ -52083,37 +51653,25 @@
     </row>
     <row r="5857" spans="1:2">
       <c r="A5857" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5857*10+C5857&gt;0,B5857*10+C5857,"")</f>
         <v>1230300040</v>
       </c>
       <c r="B5857" s="1">
         <v>123030004</v>
       </c>
     </row>
-    <row r="5858" spans="1:1">
-      <c r="A5858" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5859" spans="1:2">
       <c r="A5859" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5859*10+C5859&gt;0,B5859*10+C5859,"")</f>
         <v>1230400010</v>
       </c>
       <c r="B5859" s="1">
         <v>123040001</v>
       </c>
     </row>
-    <row r="5860" spans="1:1">
-      <c r="A5860" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5861" spans="1:2">
       <c r="A5861" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5861*10+C5861&gt;0,B5861*10+C5861,"")</f>
         <v>1230500010</v>
       </c>
       <c r="B5861" s="1">
@@ -52122,7 +51680,7 @@
     </row>
     <row r="5862" spans="1:2">
       <c r="A5862" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5862*10+C5862&gt;0,B5862*10+C5862,"")</f>
         <v>1230500020</v>
       </c>
       <c r="B5862" s="1">
@@ -52131,7 +51689,7 @@
     </row>
     <row r="5863" spans="1:2">
       <c r="A5863" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5863*10+C5863&gt;0,B5863*10+C5863,"")</f>
         <v>1230500030</v>
       </c>
       <c r="B5863" s="1">
@@ -52140,22 +51698,16 @@
     </row>
     <row r="5864" spans="1:2">
       <c r="A5864" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5864*10+C5864&gt;0,B5864*10+C5864,"")</f>
         <v>1230500040</v>
       </c>
       <c r="B5864" s="1">
         <v>123050004</v>
       </c>
     </row>
-    <row r="5865" spans="1:1">
-      <c r="A5865" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5866" spans="1:2">
       <c r="A5866" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5866*10+C5866&gt;0,B5866*10+C5866,"")</f>
         <v>1230600010</v>
       </c>
       <c r="B5866" s="1">
@@ -52164,7 +51716,7 @@
     </row>
     <row r="5867" spans="1:2">
       <c r="A5867" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5867*10+C5867&gt;0,B5867*10+C5867,"")</f>
         <v>1230600020</v>
       </c>
       <c r="B5867" s="1">
@@ -52173,7 +51725,7 @@
     </row>
     <row r="5868" spans="1:2">
       <c r="A5868" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5868*10+C5868&gt;0,B5868*10+C5868,"")</f>
         <v>1230600030</v>
       </c>
       <c r="B5868" s="1">
@@ -52182,37 +51734,25 @@
     </row>
     <row r="5869" spans="1:2">
       <c r="A5869" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5869*10+C5869&gt;0,B5869*10+C5869,"")</f>
         <v>1230600040</v>
       </c>
       <c r="B5869" s="1">
         <v>123060004</v>
       </c>
     </row>
-    <row r="5870" spans="1:1">
-      <c r="A5870" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5871" spans="1:2">
       <c r="A5871" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5871*10+C5871&gt;0,B5871*10+C5871,"")</f>
         <v>1240100010</v>
       </c>
       <c r="B5871" s="1">
         <v>124010001</v>
       </c>
     </row>
-    <row r="5872" spans="1:1">
-      <c r="A5872" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5873" spans="1:2">
       <c r="A5873" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5873*10+C5873&gt;0,B5873*10+C5873,"")</f>
         <v>1240200010</v>
       </c>
       <c r="B5873" s="1">
@@ -52221,37 +51761,25 @@
     </row>
     <row r="5874" spans="1:2">
       <c r="A5874" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5874*10+C5874&gt;0,B5874*10+C5874,"")</f>
         <v>1240200020</v>
       </c>
       <c r="B5874" s="1">
         <v>124020002</v>
       </c>
     </row>
-    <row r="5875" spans="1:1">
-      <c r="A5875" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5876" spans="1:2">
       <c r="A5876" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5876*10+C5876&gt;0,B5876*10+C5876,"")</f>
         <v>1240300010</v>
       </c>
       <c r="B5876" s="1">
         <v>124030001</v>
       </c>
     </row>
-    <row r="5877" spans="1:1">
-      <c r="A5877" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
     <row r="5878" spans="1:2">
       <c r="A5878" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5878*10+C5878&gt;0,B5878*10+C5878,"")</f>
         <v>1240400010</v>
       </c>
       <c r="B5878" s="1">
@@ -52260,7 +51788,7 @@
     </row>
     <row r="5879" spans="1:2">
       <c r="A5879" s="1">
-        <f t="shared" si="51"/>
+        <f>IF(B5879*10+C5879&gt;0,B5879*10+C5879,"")</f>
         <v>1240400020</v>
       </c>
       <c r="B5879" s="1">

--- a/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Version.xlsx
+++ b/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Version.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9204"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -268,7 +281,7 @@
     <t>周書四庫全書本</t>
   </si>
   <si>
-    <t>170011000601</t>
+    <t>160011000601</t>
   </si>
   <si>
     <t>周書中華書局本</t>
@@ -2893,7 +2906,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3851,23 +3864,23 @@
   <sheetPr/>
   <dimension ref="A1:K5879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.1111111111111" style="1"/>
-    <col min="2" max="3" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1083333333333" style="1"/>
+    <col min="2" max="3" width="11.775" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1083333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.33333333333333" style="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.77777777777778" style="1"/>
+    <col min="10" max="10" width="14.4416666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.775" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -4007,7 +4020,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="1">
-        <v>1700180868</v>
+        <v>1600180868</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>33</v>
@@ -5366,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="F157" s="1">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>84</v>
@@ -5393,7 +5406,7 @@
         <v>2</v>
       </c>
       <c r="F158" s="1">
-        <v>17001</v>
+        <v>16001</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>84</v>
